--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632359.244324697</v>
+        <v>2625342.229432986</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>186.0150712436125</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>118.7802976340888</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.2699779972374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.2346790503163</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -946,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>89.12088359923841</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>127.9907220675518</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>118.8460297402134</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>166.6606309303058</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.1565667452053</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>135.5947476878508</v>
+        <v>22.71958750778632</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>165.9182710483628</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>118.9896260744782</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>91.29932184082399</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.0282639333633</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>113.6119712335306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>131.7141344375976</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.63380062491346</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.9772637226526</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.2100584890556</v>
+        <v>21.21224374176673</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.88023140885721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.01153903325445</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.315630222944</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="W2" t="n">
-        <v>1937.315630222944</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.315630222944</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.315630222944</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>176.4379090903012</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
         <v>1749.341643278937</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4236418782189</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5105482958257</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6206007979154</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>327.455452512359</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2133.992864657682</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2133.992864657682</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.224209387568</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1781.224209387568</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.7991188072369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>710.7991188072369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>710.7991188072369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>710.7991188072369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>421.6255084618049</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5056,31 +5056,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.956765431391</v>
+        <v>1475.96719226721</v>
       </c>
       <c r="V13" t="n">
-        <v>796.2722772255036</v>
+        <v>1221.282704061323</v>
       </c>
       <c r="W13" t="n">
-        <v>506.8551071885429</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,46 +5263,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.7235151749151</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X16" t="n">
-        <v>563.7235151749151</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.7235151749151</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,13 +5530,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>515.4383659443866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>365.3217265320509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4086329496578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.156678913841</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X19" t="n">
-        <v>905.1671280158237</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y19" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1295.619629906774</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1006.490991120332</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>751.8065029144454</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>751.8065029144454</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262065</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.6620995918046</v>
+        <v>527.8027887886592</v>
       </c>
       <c r="C25" t="n">
-        <v>383.7259166638977</v>
+        <v>358.8666058607523</v>
       </c>
       <c r="D25" t="n">
-        <v>233.609277251562</v>
+        <v>358.8666058607523</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8666058607523</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>211.976658362842</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655744</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655744</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655744</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.3105644220443</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>416.5737601579242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>266.4571207455884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4571207455884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>266.4571207455884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>585.5099430858311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>785.7936752259996</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>557.8041243279822</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>337.0115451844521</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.9563154684962</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150545</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170372</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.9563154684962</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>939.0625057788493</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735861</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577675</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>150.6426047107266</v>
+        <v>263.517764890791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.1420986615184</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>59.79138434067431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>26.43142194845305</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>79.43092547709077</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>130.2482392175652</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>11.40569871320582</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>52.88159722984703</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>86.87051891449721</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>147.8597678384641</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.85471645928472</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.37459486303919</v>
+        <v>197.372409610328</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>270.6427669277338</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.5731143188403</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065624</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26429,16 +26429,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,13 +26447,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662659</v>
+        <v>-222678.4976662658</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.381548279</v>
+        <v>367289.3815482788</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482788</v>
+        <v>367289.3815482786</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592075</v>
+        <v>-53752.97166564217</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709759</v>
+        <v>471407.064811254</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.064811254</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709761</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709752</v>
+        <v>471407.0648112536</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783828</v>
+        <v>294983.8456186608</v>
       </c>
       <c r="K6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.0648112536</v>
       </c>
       <c r="L6" t="n">
-        <v>472381.6560709754</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371381</v>
+        <v>336606.0495774167</v>
       </c>
       <c r="N6" t="n">
-        <v>472381.6560709755</v>
+        <v>471407.0648112537</v>
       </c>
       <c r="O6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.0648112537</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709752</v>
+        <v>471407.064811254</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>30.43324911404528</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>230.4606710833242</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>46.03982426181349</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217.4991626131643</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>78.1889186598125</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>90.59393128454303</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>205.0767430241438</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>84.56353657798354</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.966183209709</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625342.229432986</v>
+        <v>2630281.492282018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>283.3659239828661</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>186.0150712436125</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.2699779972374</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>58.41971245821874</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>127.9907220675518</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402134</v>
+        <v>6.283679164003814</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686225</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.82331221239743</v>
       </c>
       <c r="U13" t="n">
-        <v>22.71958750778632</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>66.02367221760895</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113.6119712335306</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>256.1498215708847</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.7141344375976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>266.1768413562976</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445596</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.21224374176673</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1238.795691934384</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2509.255079661038</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2509.255079661038</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.255079661038</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2509.255079661038</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2509.255079661038</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D4" t="n">
-        <v>323.3278565882116</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="E4" t="n">
-        <v>323.3278565882116</v>
+        <v>281.9525926458894</v>
       </c>
       <c r="F4" t="n">
-        <v>176.4379090903012</v>
+        <v>281.9525926458894</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>112.9527923842218</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>74.21353655248446</v>
       </c>
       <c r="G8" t="n">
-        <v>327.455452512359</v>
+        <v>60.29013249107536</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761944</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359518</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355864</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,37 +5053,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1451.619995595885</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.96719226721</v>
+        <v>1162.491356809443</v>
       </c>
       <c r="V13" t="n">
-        <v>1221.282704061323</v>
+        <v>907.806868603556</v>
       </c>
       <c r="W13" t="n">
-        <v>931.8655340243621</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X13" t="n">
-        <v>931.8655340243621</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954972</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954972</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954972</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954972</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119723</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119723</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1321.150589122138</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954972</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954972</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.8027887886592</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8666058607523</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>358.8666058607523</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>358.8666058607523</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>211.976658362842</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188989</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188989</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4512536188989</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4512536188989</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665166</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1493.756945976139</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1269.971530765645</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>980.8428919792032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>726.1584037733163</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>436.7412337363557</v>
+        <v>864.2911825943485</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7516828383384</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6788,19 +6788,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6925,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y40" t="n">
-        <v>416.2699138005285</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>124.3400780863237</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>174.7242488459918</v>
       </c>
       <c r="U13" t="n">
-        <v>263.517764890791</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1420986615184</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>155.5238888407803</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>52.88159722984703</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>30.37317676570626</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.87051891449721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>20.34615698029342</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>52.31591677926838</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.372409610328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="12">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065624</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065629</v>
@@ -26352,10 +26352,10 @@
         <v>586543.5896065626</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,13 +26429,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26450,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662658</v>
+        <v>-222678.4976662654</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482788</v>
+        <v>367289.3815482791</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482786</v>
+        <v>367289.3815482785</v>
       </c>
       <c r="E6" t="n">
-        <v>-53752.97166564217</v>
+        <v>-52875.83953189291</v>
       </c>
       <c r="F6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="G6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="H6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450035</v>
       </c>
       <c r="I6" t="n">
-        <v>471407.0648112536</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="J6" t="n">
-        <v>294983.8456186608</v>
+        <v>295860.9777524103</v>
       </c>
       <c r="K6" t="n">
-        <v>471407.0648112536</v>
+        <v>472284.1969450038</v>
       </c>
       <c r="L6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450035</v>
       </c>
       <c r="M6" t="n">
-        <v>336606.0495774167</v>
+        <v>337483.1817111661</v>
       </c>
       <c r="N6" t="n">
-        <v>471407.0648112537</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="O6" t="n">
-        <v>471407.0648112537</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="P6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>123.5101217588453</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>30.43324911404528</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.03982426181349</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>97.75117638357641</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.59393128454303</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241438</v>
+        <v>317.6390936003534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.105142606069</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>331.4334930178483</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718702</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O30" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
